--- a/data/trans_orig/P59-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P59-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>79761</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>65187</v>
+        <v>64950</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>98727</v>
+        <v>97417</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07730887841413796</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06318219908201318</v>
+        <v>0.06295257880357337</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0956916362074987</v>
+        <v>0.09442136956008335</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>323</v>
@@ -765,19 +765,19 @@
         <v>339898</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>306505</v>
+        <v>308307</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>370602</v>
+        <v>369993</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2584554643446021</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2330637497158094</v>
+        <v>0.2344338631541167</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2818025167857369</v>
+        <v>0.2813394701352824</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>407</v>
@@ -786,19 +786,19 @@
         <v>419659</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>381649</v>
+        <v>385058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>458583</v>
+        <v>461050</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1788192596266007</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1626228905729154</v>
+        <v>0.1640756087020684</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1954047443355655</v>
+        <v>0.1964560561357362</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>9149</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4262</v>
+        <v>4291</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18495</v>
+        <v>18969</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.008867615762212351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00413109800448766</v>
+        <v>0.004159328338531823</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0179260181882195</v>
+        <v>0.01838538247428215</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>14</v>
@@ -836,19 +836,19 @@
         <v>14700</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8228</v>
+        <v>8617</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24733</v>
+        <v>23992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01117758515139015</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.006256812030037728</v>
+        <v>0.006552421520562572</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01880705659302632</v>
+        <v>0.01824294117777869</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>22</v>
@@ -857,19 +857,19 @@
         <v>23849</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14651</v>
+        <v>14610</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35836</v>
+        <v>35018</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01016206948917671</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.00624292987714613</v>
+        <v>0.006225235384253007</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0152701192473422</v>
+        <v>0.0149211814008127</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>19028</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11919</v>
+        <v>10892</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28838</v>
+        <v>29269</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01844309203765606</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01155292508525633</v>
+        <v>0.01055670175426438</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02795156376383018</v>
+        <v>0.02836939531288142</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -907,19 +907,19 @@
         <v>35388</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24280</v>
+        <v>24224</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48002</v>
+        <v>48049</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02690895331730128</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01846257011863701</v>
+        <v>0.01841948576755615</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.03650055845395538</v>
+        <v>0.03653574462346471</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -928,19 +928,19 @@
         <v>54416</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>41222</v>
+        <v>41439</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>71574</v>
+        <v>69242</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02318716602267997</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01756482750261485</v>
+        <v>0.01765720480285974</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03049795738979484</v>
+        <v>0.02950455929914666</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>205849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>180140</v>
+        <v>182242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>233196</v>
+        <v>233472</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1995198430618408</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1746013389704013</v>
+        <v>0.1766380862028</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2260257546388941</v>
+        <v>0.2262937439381089</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -978,19 +978,19 @@
         <v>126833</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>107897</v>
+        <v>106376</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>150077</v>
+        <v>148280</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09644290892312692</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08204410920444348</v>
+        <v>0.08088711629596461</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1141171676365587</v>
+        <v>0.1127504862881516</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -999,19 +999,19 @@
         <v>332682</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>299689</v>
+        <v>299494</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>366582</v>
+        <v>366314</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1417578994685495</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1276991365108751</v>
+        <v>0.1276161366988199</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.156202872165657</v>
+        <v>0.1560884073852424</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>717935</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>687566</v>
+        <v>687316</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>744129</v>
+        <v>747732</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6958605707241529</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6664252716477758</v>
+        <v>0.6661822334123515</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7212492021612041</v>
+        <v>0.7247411906884954</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>792</v>
@@ -1049,19 +1049,19 @@
         <v>798293</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>761426</v>
+        <v>763375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>832031</v>
+        <v>833055</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6070150882635795</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5789815864930676</v>
+        <v>0.5804635692958975</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6326685701663788</v>
+        <v>0.6334476613097548</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1519</v>
@@ -1070,19 +1070,19 @@
         <v>1516228</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1471209</v>
+        <v>1469067</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1562693</v>
+        <v>1560192</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6460736053929931</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6268905778205613</v>
+        <v>0.6259781630213258</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6658725986673815</v>
+        <v>0.6648067223071298</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>27054</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17796</v>
+        <v>17068</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39013</v>
+        <v>39235</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01597609755966725</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01050884773356382</v>
+        <v>0.01007906764234627</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02303803495473221</v>
+        <v>0.02316921981399861</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>45</v>
@@ -1195,19 +1195,19 @@
         <v>49613</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35690</v>
+        <v>36968</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>63815</v>
+        <v>65481</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03124906069368876</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02247946906384171</v>
+        <v>0.02328432627314105</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04019414281027905</v>
+        <v>0.04124316777751073</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>71</v>
@@ -1216,19 +1216,19 @@
         <v>76667</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>60186</v>
+        <v>58977</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>95154</v>
+        <v>95453</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02336647833079434</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01834340486272129</v>
+        <v>0.01797470240940609</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02900074872164757</v>
+        <v>0.02909186990738607</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>25054</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15775</v>
+        <v>17199</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35599</v>
+        <v>37197</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01479474031618425</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009315432618839447</v>
+        <v>0.01015636922354354</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02102189740515484</v>
+        <v>0.02196595982439859</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>33</v>
@@ -1266,19 +1266,19 @@
         <v>37288</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>25984</v>
+        <v>26247</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>51611</v>
+        <v>50665</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02348572703994597</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01636618414444338</v>
+        <v>0.01653189983625687</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03250748773800054</v>
+        <v>0.03191125718537949</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>57</v>
@@ -1287,19 +1287,19 @@
         <v>62341</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>46996</v>
+        <v>48805</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>79530</v>
+        <v>80780</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01900019151787894</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01432316999071878</v>
+        <v>0.01487469678490545</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02423887220580372</v>
+        <v>0.02461986177214342</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>26597</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>16595</v>
+        <v>16372</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41015</v>
+        <v>40469</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01570639917664067</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.009799692167825459</v>
+        <v>0.009667754306207482</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02422008199781026</v>
+        <v>0.02389774581670561</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>43</v>
@@ -1337,19 +1337,19 @@
         <v>45171</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>33579</v>
+        <v>33237</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>60523</v>
+        <v>60511</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02845131640035485</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02114996341117699</v>
+        <v>0.02093469542410906</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03812033175099761</v>
+        <v>0.03811278478831714</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>64</v>
@@ -1358,19 +1358,19 @@
         <v>71769</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>55963</v>
+        <v>56492</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>92755</v>
+        <v>92561</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02187349264456963</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01705630265885041</v>
+        <v>0.01721755239337094</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02826947634442165</v>
+        <v>0.02821038529575873</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>684734</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>644072</v>
+        <v>642865</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>725130</v>
+        <v>726480</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4043515604409631</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3803393753136264</v>
+        <v>0.3796267435130543</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.428206306449213</v>
+        <v>0.4290032340934661</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>537</v>
@@ -1408,19 +1408,19 @@
         <v>528649</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>494058</v>
+        <v>495381</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>566447</v>
+        <v>565747</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3329710997342063</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3111840209279699</v>
+        <v>0.312017300578055</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3567778868226469</v>
+        <v>0.356337128642544</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1215</v>
@@ -1429,19 +1429,19 @@
         <v>1213383</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1153820</v>
+        <v>1156072</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1264363</v>
+        <v>1266276</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3698115186944926</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3516578973414139</v>
+        <v>0.3523441858489489</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3853490493224675</v>
+        <v>0.3859318753953508</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>929974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>888218</v>
+        <v>888442</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>972094</v>
+        <v>975100</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5491712025065447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5245134168396337</v>
+        <v>0.5246458872428074</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5740443572785866</v>
+        <v>0.5758194324311855</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>896</v>
@@ -1479,19 +1479,19 @@
         <v>926951</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>888029</v>
+        <v>889368</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>963743</v>
+        <v>967286</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5838427961318041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5593276314743754</v>
+        <v>0.5601709186599761</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6070159467726728</v>
+        <v>0.6092476819230664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1796</v>
@@ -1500,19 +1500,19 @@
         <v>1856925</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1800975</v>
+        <v>1806228</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1916784</v>
+        <v>1919118</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5659483188122645</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.548896113980326</v>
+        <v>0.5504970550692946</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5841918077752948</v>
+        <v>0.5849033187407782</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>5503</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1917</v>
+        <v>2631</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>12910</v>
+        <v>15615</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009979070935522564</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003476596264993095</v>
+        <v>0.004772022364086868</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02341313296111376</v>
+        <v>0.02831892648025928</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1625,19 +1625,19 @@
         <v>11362</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5674</v>
+        <v>6014</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>19290</v>
+        <v>19661</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02384947934694735</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01191035589826806</v>
+        <v>0.0126234932126699</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04048963087550779</v>
+        <v>0.04126970317923319</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>16</v>
@@ -1646,19 +1646,19 @@
         <v>16865</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>9988</v>
+        <v>10221</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26871</v>
+        <v>27023</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01640823822360522</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009717174716232976</v>
+        <v>0.009944577181869313</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02614336929310093</v>
+        <v>0.02629183670362815</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>4266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>944</v>
+        <v>1224</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>10495</v>
+        <v>10028</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.007735670565500563</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.001711558030623829</v>
+        <v>0.002219111096165604</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.01903254417272253</v>
+        <v>0.01818657195001687</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>12</v>
@@ -1696,19 +1696,19 @@
         <v>12189</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6271</v>
+        <v>6974</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20702</v>
+        <v>20622</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02558439590470694</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.01316284710265864</v>
+        <v>0.0146388600420254</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0434549538907005</v>
+        <v>0.04328602081216794</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -1717,19 +1717,19 @@
         <v>16454</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10172</v>
+        <v>9774</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>25686</v>
+        <v>26746</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.01600885457573334</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.009897050522187112</v>
+        <v>0.009509568626986799</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.02499061742992452</v>
+        <v>0.02602230392167374</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>4360</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1034</v>
+        <v>1562</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>11297</v>
+        <v>11074</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.00790682297711196</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.001875154940518666</v>
+        <v>0.002832676322064546</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02048721210657323</v>
+        <v>0.02008267461193858</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>13</v>
@@ -1767,19 +1767,19 @@
         <v>15234</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>8854</v>
+        <v>8107</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26005</v>
+        <v>25366</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03197557087070203</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01858520638441681</v>
+        <v>0.01701690188493553</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.05458588383693393</v>
+        <v>0.05324280286354633</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>18</v>
@@ -1788,19 +1788,19 @@
         <v>19593</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>12300</v>
+        <v>11527</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>32094</v>
+        <v>32130</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.01906309192266945</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01196664841571742</v>
+        <v>0.01121471505011046</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.03122545201648704</v>
+        <v>0.03126039253955445</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>217366</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>193869</v>
+        <v>193979</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>242395</v>
+        <v>239861</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3942010809624133</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3515894334160838</v>
+        <v>0.3517883389273361</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4395924832657655</v>
+        <v>0.4349978298428863</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>183</v>
@@ -1838,19 +1838,19 @@
         <v>188256</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>166884</v>
+        <v>166111</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>209981</v>
+        <v>208588</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3951533065341141</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.350293233207609</v>
+        <v>0.3486710482477977</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4407553830799014</v>
+        <v>0.437831170848427</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>393</v>
@@ -1859,19 +1859,19 @@
         <v>405621</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>373101</v>
+        <v>371429</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>435041</v>
+        <v>434058</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3946424535099882</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.363002149460025</v>
+        <v>0.3613758282540814</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4232658633956523</v>
+        <v>0.4223089153843789</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>319914</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>296582</v>
+        <v>297197</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>343732</v>
+        <v>344733</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5801773545594516</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5378629227658004</v>
+        <v>0.5389777852845767</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6233717979960876</v>
+        <v>0.6251860682797352</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>233</v>
@@ -1909,19 +1909,19 @@
         <v>249372</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>228703</v>
+        <v>229180</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>271892</v>
+        <v>273863</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5234372473435296</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4800535276023562</v>
+        <v>0.4810539958671084</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5707077321135504</v>
+        <v>0.5748440621139277</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>536</v>
@@ -1930,19 +1930,19 @@
         <v>569286</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>535992</v>
+        <v>540515</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>601717</v>
+        <v>604183</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5538773617680038</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5214841689979089</v>
+        <v>0.5258846253564674</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5854300727287969</v>
+        <v>0.5878292405878563</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>112318</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>92859</v>
+        <v>94398</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>135301</v>
+        <v>133780</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03427941801213355</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02834066411905867</v>
+        <v>0.02881010896621734</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0412938853736085</v>
+        <v>0.04082947678108979</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>379</v>
@@ -2055,19 +2055,19 @@
         <v>400873</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>367680</v>
+        <v>364454</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>440502</v>
+        <v>438337</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1186298010945111</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1088067802814789</v>
+        <v>0.1078522898758621</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1303571332623971</v>
+        <v>0.1297163135913983</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>494</v>
@@ -2076,19 +2076,19 @@
         <v>513192</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>470699</v>
+        <v>473486</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>557572</v>
+        <v>557635</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0771050933707665</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07072080002441636</v>
+        <v>0.07113952690138182</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08377314539892755</v>
+        <v>0.08378254683235067</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>38468</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26988</v>
+        <v>27222</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>52040</v>
+        <v>52769</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.01174043101718946</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.008236582861785304</v>
+        <v>0.008308276283631701</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01588256297075438</v>
+        <v>0.01610499902714896</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>59</v>
@@ -2126,19 +2126,19 @@
         <v>64176</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>50399</v>
+        <v>48923</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>81574</v>
+        <v>81491</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01899153474435078</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01491451223015565</v>
+        <v>0.01447781328721775</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02414004310448408</v>
+        <v>0.02411560330150641</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>95</v>
@@ -2147,19 +2147,19 @@
         <v>102644</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>83275</v>
+        <v>84301</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>125854</v>
+        <v>127459</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01542190112868751</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01251182172170858</v>
+        <v>0.01266587491916154</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01890907702070916</v>
+        <v>0.01915022030763902</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>49985</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>36116</v>
+        <v>35179</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>66549</v>
+        <v>66927</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01525554610678865</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01102257162161419</v>
+        <v>0.01073662468773123</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02031086385663123</v>
+        <v>0.02042622969815707</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>90</v>
@@ -2197,19 +2197,19 @@
         <v>95793</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>78043</v>
+        <v>76907</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>115912</v>
+        <v>115974</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02834792339884562</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02309501447273789</v>
+        <v>0.02275896568152194</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03430154660613165</v>
+        <v>0.03431989314009779</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>134</v>
@@ -2218,19 +2218,19 @@
         <v>145779</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>122358</v>
+        <v>120595</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>174504</v>
+        <v>171289</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02190269907863459</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01838390247325514</v>
+        <v>0.01811891288492099</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.0262186105018993</v>
+        <v>0.0257355433757082</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>1107949</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1051514</v>
+        <v>1055662</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1164804</v>
+        <v>1167943</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3381456253438981</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3209218873350679</v>
+        <v>0.3221877466080272</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3554977128188667</v>
+        <v>0.3564557422683415</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>848</v>
@@ -2268,19 +2268,19 @@
         <v>843738</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>792905</v>
+        <v>794313</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>896635</v>
+        <v>891968</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2496859709560496</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2346430628003938</v>
+        <v>0.2350596959324656</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2653398001637662</v>
+        <v>0.263958563880833</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1937</v>
@@ -2289,19 +2289,19 @@
         <v>1951687</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1882763</v>
+        <v>1885492</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2030853</v>
+        <v>2030024</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2932336249152678</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2828780671727406</v>
+        <v>0.2832881304049384</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.305128021738064</v>
+        <v>0.30500338303815</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>1967823</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1909377</v>
+        <v>1906301</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2025472</v>
+        <v>2018984</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6005789795199902</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5827412827188759</v>
+        <v>0.5818025209049084</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6181734256498295</v>
+        <v>0.616193310552715</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1921</v>
@@ -2339,19 +2339,19 @@
         <v>1974616</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1914496</v>
+        <v>1917778</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2030835</v>
+        <v>2030138</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5843447698062429</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5665534772546935</v>
+        <v>0.5675246437241782</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6009816449514422</v>
+        <v>0.6007751934844214</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3851</v>
@@ -2360,19 +2360,19 @@
         <v>3942440</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3856536</v>
+        <v>3855589</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4022751</v>
+        <v>4021172</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5923366815066435</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5794299439991359</v>
+        <v>0.5792877759517738</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6044032266404372</v>
+        <v>0.6041659189037235</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>91277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74406</v>
+        <v>74001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112048</v>
+        <v>112520</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09373773238716153</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0764123281382101</v>
+        <v>0.07599580685285225</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1150683311905537</v>
+        <v>0.1155534822538054</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>333</v>
@@ -2724,19 +2724,19 @@
         <v>354841</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>323632</v>
+        <v>320781</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>388071</v>
+        <v>385530</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2652428064126962</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2419140253795743</v>
+        <v>0.2397832749676362</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.290082252836181</v>
+        <v>0.2881824685299564</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>418</v>
@@ -2745,19 +2745,19 @@
         <v>446118</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>404882</v>
+        <v>410648</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>487440</v>
+        <v>482720</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1929955121873233</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1751562334579457</v>
+        <v>0.1776506619729287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2108716988344368</v>
+        <v>0.2088297465443289</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>15357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8066</v>
+        <v>8101</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27169</v>
+        <v>28088</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01577142906817391</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008283454291148653</v>
+        <v>0.008319306521023306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02790118408615793</v>
+        <v>0.02884499612280149</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>22</v>
@@ -2795,19 +2795,19 @@
         <v>24267</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16128</v>
+        <v>15966</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>34377</v>
+        <v>35102</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01813924375651383</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0120555589116955</v>
+        <v>0.01193463559516988</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02569696041514409</v>
+        <v>0.02623855542694388</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>34</v>
@@ -2816,19 +2816,19 @@
         <v>39624</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>28008</v>
+        <v>26737</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>55711</v>
+        <v>55622</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0171417910255574</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01211658656483021</v>
+        <v>0.01156682188865844</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0241012599332264</v>
+        <v>0.02406268274047871</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>14054</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8128</v>
+        <v>7934</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22967</v>
+        <v>22884</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01443307739325206</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008347099741229241</v>
+        <v>0.008148245367842154</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02358590333995275</v>
+        <v>0.02350045463925582</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -2866,19 +2866,19 @@
         <v>24909</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>16025</v>
+        <v>15505</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>37357</v>
+        <v>36965</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01861973758864908</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01197840541509954</v>
+        <v>0.01159005015700158</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02792418588504227</v>
+        <v>0.02763106984771629</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>35</v>
@@ -2887,19 +2887,19 @@
         <v>38964</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>26656</v>
+        <v>27652</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>54503</v>
+        <v>52922</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01685608789678357</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01153168623340475</v>
+        <v>0.01196275114849062</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02357853113969072</v>
+        <v>0.02289467693734574</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>192544</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>166646</v>
+        <v>168531</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>217295</v>
+        <v>219921</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1977350678830812</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1711387336037762</v>
+        <v>0.1730740667984972</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2231532287575204</v>
+        <v>0.2258495238834846</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -2937,19 +2937,19 @@
         <v>109905</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>91258</v>
+        <v>91971</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>132058</v>
+        <v>134784</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08215338265572092</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06821493263427428</v>
+        <v>0.06874816632323859</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09871316709913069</v>
+        <v>0.100750351658041</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>284</v>
@@ -2958,19 +2958,19 @@
         <v>302449</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>272374</v>
+        <v>268192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>337683</v>
+        <v>336224</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1308426944275829</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1178319116111942</v>
+        <v>0.1160229436283779</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1460854480883243</v>
+        <v>0.1454542977973641</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>660516</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>630339</v>
+        <v>626596</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>688133</v>
+        <v>689482</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6783226932683314</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6473317841126247</v>
+        <v>0.6434883638997106</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7066838127683566</v>
+        <v>0.7080690739793456</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>770</v>
@@ -3008,19 +3008,19 @@
         <v>823875</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>789165</v>
+        <v>790218</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>861862</v>
+        <v>859723</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.61584482958642</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5898990896761782</v>
+        <v>0.5906862542542638</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6442397129590135</v>
+        <v>0.6426405426324607</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1383</v>
@@ -3029,19 +3029,19 @@
         <v>1484391</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1437825</v>
+        <v>1436777</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1535490</v>
+        <v>1529828</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6421639144627528</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6220189518673888</v>
+        <v>0.6215652174348414</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6642698972551361</v>
+        <v>0.661820371156139</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>24176</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14958</v>
+        <v>14517</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>38289</v>
+        <v>37508</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0123414900941699</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007636011713095926</v>
+        <v>0.00741051256297907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01954581846132818</v>
+        <v>0.01914739360491865</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>57</v>
@@ -3154,19 +3154,19 @@
         <v>62527</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>47284</v>
+        <v>48355</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>80219</v>
+        <v>82072</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03558996564349765</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02691375622878502</v>
+        <v>0.02752367123187555</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0456601833759711</v>
+        <v>0.04671483670594462</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -3175,19 +3175,19 @@
         <v>86703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>66989</v>
+        <v>67881</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>106846</v>
+        <v>107245</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02333360960608736</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0180282014429268</v>
+        <v>0.01826814859897656</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0287545952872107</v>
+        <v>0.02886206806192614</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>58075</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>42964</v>
+        <v>41549</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76076</v>
+        <v>76424</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02964612634521968</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02193261451932802</v>
+        <v>0.02120990253687376</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0388357253960313</v>
+        <v>0.03901343203144513</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>71</v>
@@ -3225,19 +3225,19 @@
         <v>75152</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>59844</v>
+        <v>59314</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>94889</v>
+        <v>92559</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04277637309276677</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03406295488169245</v>
+        <v>0.0337610992150085</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05401043127314103</v>
+        <v>0.05268442254727831</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>122</v>
@@ -3246,19 +3246,19 @@
         <v>133227</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>111440</v>
+        <v>110437</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>158054</v>
+        <v>160094</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03585424270810854</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02999080620396125</v>
+        <v>0.02972096328058792</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04253588393587113</v>
+        <v>0.04308485631181975</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>35832</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24962</v>
+        <v>24834</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50614</v>
+        <v>50866</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01829140647161466</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.01274259693114874</v>
+        <v>0.01267727846521378</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.0258374952104066</v>
+        <v>0.02596616490804738</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>46</v>
@@ -3296,19 +3296,19 @@
         <v>49870</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36345</v>
+        <v>38021</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>66353</v>
+        <v>67318</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.02838576372904728</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.02068714990732323</v>
+        <v>0.02164161398241613</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0377678134676734</v>
+        <v>0.03831686875834093</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>79</v>
@@ -3317,19 +3317,19 @@
         <v>85701</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>66367</v>
+        <v>67607</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>106036</v>
+        <v>107425</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.02306412290776392</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.01786092693656362</v>
+        <v>0.01819459681813929</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02853647181844597</v>
+        <v>0.02891034761512407</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>755378</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>707069</v>
+        <v>713953</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>797148</v>
+        <v>799283</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3856082451103716</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3609474002587907</v>
+        <v>0.3644612539031263</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4069311949866274</v>
+        <v>0.4080212826058041</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>522</v>
@@ -3367,19 +3367,19 @@
         <v>549336</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>510706</v>
+        <v>509393</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>586890</v>
+        <v>588147</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3126796058239919</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2906918018101409</v>
+        <v>0.2899447523634522</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3340555630695579</v>
+        <v>0.334770704885616</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1249</v>
@@ -3388,19 +3388,19 @@
         <v>1304714</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1241389</v>
+        <v>1241920</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1359676</v>
+        <v>1363764</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3511268307407923</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3340848786367696</v>
+        <v>0.3342278112712814</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3659184737618843</v>
+        <v>0.3670186287046875</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>1085466</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1039134</v>
+        <v>1040975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1130661</v>
+        <v>1129661</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5541127319786242</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5304610684000571</v>
+        <v>0.5314010484635109</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5771842440041212</v>
+        <v>0.5766736426113496</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>938</v>
@@ -3438,19 +3438,19 @@
         <v>1019980</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>978685</v>
+        <v>976467</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1062879</v>
+        <v>1060624</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5805682917106963</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5570634325444715</v>
+        <v>0.5558010935744294</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6049867357205905</v>
+        <v>0.603702929440726</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1958</v>
@@ -3459,19 +3459,19 @@
         <v>2105445</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2045920</v>
+        <v>2043364</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2172062</v>
+        <v>2170291</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.566621194037248</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5506016736372037</v>
+        <v>0.5499136537204935</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5845491247743183</v>
+        <v>0.584072501090023</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>7254</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3101</v>
+        <v>3122</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>14932</v>
+        <v>14604</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01510812735261583</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006457409960705656</v>
+        <v>0.006501585852040227</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03109818522103053</v>
+        <v>0.03041384893000476</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -3584,19 +3584,19 @@
         <v>7688</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3325</v>
+        <v>3374</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>15794</v>
+        <v>15209</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01676312948567036</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.007250164143603354</v>
+        <v>0.007355926548449345</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03443654867927425</v>
+        <v>0.03316121971276496</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>14</v>
@@ -3605,19 +3605,19 @@
         <v>14943</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8641</v>
+        <v>8762</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>24013</v>
+        <v>24494</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01591664335259991</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009204668812816754</v>
+        <v>0.009333425678435904</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02557808706978364</v>
+        <v>0.02609092928386905</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>10074</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>4214</v>
+        <v>4063</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>21672</v>
+        <v>20430</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.0209806494019022</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.008777000343677852</v>
+        <v>0.008460684163184774</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04513399276374674</v>
+        <v>0.04254808607941372</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>15</v>
@@ -3655,19 +3655,19 @@
         <v>16982</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>9847</v>
+        <v>10130</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>28419</v>
+        <v>27435</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.03702782805238751</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02147012675862428</v>
+        <v>0.02208788173963912</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.06196527975096604</v>
+        <v>0.05982022961892259</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>22</v>
@@ -3676,19 +3676,19 @@
         <v>27056</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17755</v>
+        <v>17328</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>43183</v>
+        <v>40888</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0288201563332765</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01891289066323903</v>
+        <v>0.01845768576966671</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04599756847133925</v>
+        <v>0.0435539325560084</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>4167</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1124</v>
+        <v>1045</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10320</v>
+        <v>10425</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.008677479410635397</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.002340621349202766</v>
+        <v>0.002175757659920177</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.0214928894461399</v>
+        <v>0.02171162097519625</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -3726,19 +3726,19 @@
         <v>4150</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>10378</v>
+        <v>10553</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.009048448278738503</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.002417964777801715</v>
+        <v>0.002400717178865128</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.02262746678586143</v>
+        <v>0.02300967738585242</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>8</v>
@@ -3747,19 +3747,19 @@
         <v>8317</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3156</v>
+        <v>4022</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15684</v>
+        <v>15486</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.008858708340415552</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.00336172193183763</v>
+        <v>0.004283848855239037</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01670630670989107</v>
+        <v>0.01649516119711614</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>194996</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>171261</v>
+        <v>172438</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>215770</v>
+        <v>218745</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4060983515017069</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.356667339736521</v>
+        <v>0.359119626879748</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4493622646025304</v>
+        <v>0.4555564302014196</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>159</v>
@@ -3797,19 +3797,19 @@
         <v>175400</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>155251</v>
+        <v>152740</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>198067</v>
+        <v>196964</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.382441562301078</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3385097043981728</v>
+        <v>0.3330349487312746</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4318661075541848</v>
+        <v>0.4294601016947425</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>344</v>
@@ -3818,19 +3818,19 @@
         <v>370396</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>340830</v>
+        <v>339851</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>400942</v>
+        <v>401218</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3945413316073231</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3630482445985501</v>
+        <v>0.3620058198900751</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.427078934734195</v>
+        <v>0.4273730228211259</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>263678</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>239706</v>
+        <v>240184</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>284376</v>
+        <v>285865</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5491353923331397</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4992115789320598</v>
+        <v>0.5002069178456549</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5922396408626449</v>
+        <v>0.5953402269586527</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>227</v>
@@ -3868,19 +3868,19 @@
         <v>254411</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>231060</v>
+        <v>232843</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>275113</v>
+        <v>277085</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5547190318821256</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5038043292600082</v>
+        <v>0.5076921726885686</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5998576538539825</v>
+        <v>0.6041563900477893</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>461</v>
@@ -3889,19 +3889,19 @@
         <v>518090</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>486750</v>
+        <v>487715</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>548715</v>
+        <v>550264</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5518631603663849</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5184805579337182</v>
+        <v>0.5195084056597249</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5844846809500158</v>
+        <v>0.586134807153916</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>122708</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>99425</v>
+        <v>101583</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>145774</v>
+        <v>146904</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03595462917422435</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0291326207502977</v>
+        <v>0.02976497765573758</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04271319924635684</v>
+        <v>0.04304446373792795</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>397</v>
@@ -4014,19 +4014,19 @@
         <v>425056</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>391771</v>
+        <v>389942</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>464621</v>
+        <v>470004</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1196230968066396</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1102557083225258</v>
+        <v>0.1097410311055359</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1307579000282577</v>
+        <v>0.1322729395082603</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>509</v>
@@ -4035,19 +4035,19 @@
         <v>547763</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>499988</v>
+        <v>506695</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>596324</v>
+        <v>593609</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0786322972133869</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07177409795811042</v>
+        <v>0.07273693278046761</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08560325409726184</v>
+        <v>0.08521347678655602</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>83506</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65994</v>
+        <v>64502</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>106105</v>
+        <v>104137</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02446822486047998</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01933700337823441</v>
+        <v>0.01889971287027559</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0310898088626056</v>
+        <v>0.03051329563867684</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>108</v>
@@ -4085,19 +4085,19 @@
         <v>116401</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>97552</v>
+        <v>97388</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>141600</v>
+        <v>138365</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.032758639202012</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02745407232795511</v>
+        <v>0.02740796590837608</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03985046323968122</v>
+        <v>0.03893986299276969</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>178</v>
@@ -4106,19 +4106,19 @@
         <v>199907</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>173054</v>
+        <v>171090</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>229202</v>
+        <v>230363</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02869700496351056</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02484215042249503</v>
+        <v>0.02456023004116776</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03290226105850969</v>
+        <v>0.03306901556471414</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>54052</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>41488</v>
+        <v>40335</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>70806</v>
+        <v>70440</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.015837922246557</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.01215642184120517</v>
+        <v>0.01181857496119318</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02074691428855203</v>
+        <v>0.02063960368791423</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>71</v>
@@ -4156,19 +4156,19 @@
         <v>78929</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>62425</v>
+        <v>61811</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>99601</v>
+        <v>97561</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02221299392894435</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.01756827684454077</v>
+        <v>0.01739556166469786</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.02803062059007681</v>
+        <v>0.02745655632636511</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>122</v>
@@ -4177,19 +4177,19 @@
         <v>132982</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>110447</v>
+        <v>109433</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>158660</v>
+        <v>159310</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01908972308247173</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01585477427954514</v>
+        <v>0.0157092544220941</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.02277587196401466</v>
+        <v>0.02286916275565215</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>1142919</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1088441</v>
+        <v>1088017</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1199547</v>
+        <v>1201831</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3348873264527789</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.318924866638582</v>
+        <v>0.318800724520567</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3514802034004728</v>
+        <v>0.3521494249469752</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>782</v>
@@ -4227,19 +4227,19 @@
         <v>834639</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>786633</v>
+        <v>781335</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>891817</v>
+        <v>887388</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2348919577709568</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.221381470957536</v>
+        <v>0.2198904292449064</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2509834718309974</v>
+        <v>0.249736908258229</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1877</v>
@@ -4248,19 +4248,19 @@
         <v>1977558</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1904142</v>
+        <v>1900244</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2053530</v>
+        <v>2054131</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.283881621785097</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2733425992416534</v>
+        <v>0.2727831184228115</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2947874851716337</v>
+        <v>0.2948737804661712</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>2009660</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1951215</v>
+        <v>1953104</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2067367</v>
+        <v>2071630</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5888518972659598</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5717266747236625</v>
+        <v>0.5722804337311562</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6057607050451024</v>
+        <v>0.6070095851801192</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1935</v>
@@ -4298,19 +4298,19 @@
         <v>2098266</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2042408</v>
+        <v>2036990</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2161147</v>
+        <v>2158336</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5905133122914473</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5747932423550871</v>
+        <v>0.5732685474055099</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.608210098655128</v>
+        <v>0.6074189728183074</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3802</v>
@@ -4319,19 +4319,19 @@
         <v>4107926</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4024671</v>
+        <v>4027658</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4193269</v>
+        <v>4193241</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5896993529555339</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5777480248593123</v>
+        <v>0.578176800847385</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6019504658697357</v>
+        <v>0.6019464566452106</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>98607</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>82049</v>
+        <v>83114</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118872</v>
+        <v>118009</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1307188302417985</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1087684628332773</v>
+        <v>0.1101797847841212</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1575827038909961</v>
+        <v>0.1564390717701264</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>249</v>
@@ -4683,19 +4683,19 @@
         <v>300154</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>269448</v>
+        <v>270173</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>332104</v>
+        <v>332755</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3017652860575663</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2708944505592452</v>
+        <v>0.2716238998966332</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3338869620591431</v>
+        <v>0.3345418693563379</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>357</v>
@@ -4704,19 +4704,19 @@
         <v>398761</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>365554</v>
+        <v>358591</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>435906</v>
+        <v>432221</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2279929418381639</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2090063154856025</v>
+        <v>0.2050256743187807</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2492306731301774</v>
+        <v>0.2471235137724904</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>12705</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6622</v>
+        <v>6749</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>20649</v>
+        <v>21030</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01684239726907629</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.008779013998355992</v>
+        <v>0.008946566245520834</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0273734069832205</v>
+        <v>0.02787798045609262</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -4754,19 +4754,19 @@
         <v>26831</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16902</v>
+        <v>17630</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>38133</v>
+        <v>39747</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02697523616011294</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01699282267533689</v>
+        <v>0.01772433802958681</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0383372886576618</v>
+        <v>0.03996049473684693</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>38</v>
@@ -4775,19 +4775,19 @@
         <v>39536</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>27693</v>
+        <v>28759</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>52752</v>
+        <v>53458</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02260494228279079</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01583352341806038</v>
+        <v>0.01644304658143642</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03016104581862965</v>
+        <v>0.03056505142000901</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>22077</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>13842</v>
+        <v>14052</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32480</v>
+        <v>33578</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02926661893110736</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01835025466428488</v>
+        <v>0.01862842445009787</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04305744484261069</v>
+        <v>0.04451290086213722</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>15</v>
@@ -4825,19 +4825,19 @@
         <v>15356</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9196</v>
+        <v>9049</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24495</v>
+        <v>24634</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01543885362126887</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.009245735921825794</v>
+        <v>0.009097958188998643</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0246267812391806</v>
+        <v>0.02476632286511962</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>35</v>
@@ -4846,19 +4846,19 @@
         <v>37434</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25992</v>
+        <v>26751</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>51023</v>
+        <v>50716</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02140276943207796</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01486079014143911</v>
+        <v>0.01529507704383751</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02917276632823208</v>
+        <v>0.02899702178060736</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>139291</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>120171</v>
+        <v>116395</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162399</v>
+        <v>159273</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1846505056816586</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1593053114340089</v>
+        <v>0.1542987193249045</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2152836520376417</v>
+        <v>0.211139823794317</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -4896,19 +4896,19 @@
         <v>74928</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60235</v>
+        <v>59495</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>93936</v>
+        <v>95115</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07533060532279072</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06055833206015072</v>
+        <v>0.05981393382214965</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09443983056018983</v>
+        <v>0.0956255884976234</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>207</v>
@@ -4917,19 +4917,19 @@
         <v>214219</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>188073</v>
+        <v>183609</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>243493</v>
+        <v>242456</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1224802833493946</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1075315013553682</v>
+        <v>0.1049792700139579</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1392180395697796</v>
+        <v>0.1386250153032577</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>481667</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>454762</v>
+        <v>455994</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>506449</v>
+        <v>507673</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6385216478763592</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6028553246240427</v>
+        <v>0.6044887149947448</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6713744091864935</v>
+        <v>0.6729965547100901</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>531</v>
@@ -4967,19 +4967,19 @@
         <v>577390</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>545693</v>
+        <v>545712</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>610647</v>
+        <v>611768</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5804900188382611</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5486230117879597</v>
+        <v>0.5486421294411605</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6139252820680918</v>
+        <v>0.6150520746836311</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1017</v>
@@ -4988,19 +4988,19 @@
         <v>1059057</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1016924</v>
+        <v>1021405</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1098315</v>
+        <v>1104659</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6055190630975728</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5814291887436289</v>
+        <v>0.5839914691214528</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.62796471461071</v>
+        <v>0.6315922335981367</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>31318</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21781</v>
+        <v>21641</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43719</v>
+        <v>44602</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01508899896681486</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01049415798558588</v>
+        <v>0.01042668072848993</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0210643543254224</v>
+        <v>0.02148939312615097</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -5113,19 +5113,19 @@
         <v>110427</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>90577</v>
+        <v>89298</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>132839</v>
+        <v>131964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05565539409181406</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04565096160292894</v>
+        <v>0.04500595363569373</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06695061848176677</v>
+        <v>0.06650972912525474</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>124</v>
@@ -5134,19 +5134,19 @@
         <v>141745</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>118637</v>
+        <v>116673</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>168134</v>
+        <v>168110</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03491557898398815</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02922354305458943</v>
+        <v>0.02873966103727443</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04141586649268876</v>
+        <v>0.04140993836425681</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>68588</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>51618</v>
+        <v>52105</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>87331</v>
+        <v>87865</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03304623086608153</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02486987802868204</v>
+        <v>0.02510454055891066</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04207683440273206</v>
+        <v>0.04233377432197541</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>97</v>
@@ -5184,19 +5184,19 @@
         <v>104615</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83692</v>
+        <v>86531</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>126139</v>
+        <v>127583</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0527256864239176</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04218054737217185</v>
+        <v>0.04361185286125072</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06357394693938648</v>
+        <v>0.06430162171956917</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>156</v>
@@ -5205,19 +5205,19 @@
         <v>173203</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>147749</v>
+        <v>144523</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>203890</v>
+        <v>198622</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04266444562510986</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03639457749566209</v>
+        <v>0.03559976319032304</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05022358168883728</v>
+        <v>0.04892586989024046</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>56360</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>42517</v>
+        <v>43419</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73851</v>
+        <v>72404</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02715472356075793</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02048485842807897</v>
+        <v>0.02091959436740288</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.03558205329600725</v>
+        <v>0.03488468024208395</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>70</v>
@@ -5255,19 +5255,19 @@
         <v>72153</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>56259</v>
+        <v>57175</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>90688</v>
+        <v>90422</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03636487977710737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0283542974919283</v>
+        <v>0.02881639124819776</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04570653562596071</v>
+        <v>0.04557247564497982</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>123</v>
@@ -5276,19 +5276,19 @@
         <v>128513</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>106366</v>
+        <v>107702</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>151953</v>
+        <v>152383</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03165613165066698</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02620072419567904</v>
+        <v>0.02652997988384236</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.03742997039247086</v>
+        <v>0.0375359968352735</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>801071</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>753061</v>
+        <v>755757</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>841457</v>
+        <v>846056</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.385961796020157</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3628300090187871</v>
+        <v>0.3641290094463803</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4054198207006856</v>
+        <v>0.4076358654337739</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>643</v>
@@ -5326,19 +5326,19 @@
         <v>644446</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>605481</v>
+        <v>602742</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>684292</v>
+        <v>688311</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3248004375776903</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3051621824911017</v>
+        <v>0.3037817649873091</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3448829409812651</v>
+        <v>0.346908676487607</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1399</v>
@@ -5347,19 +5347,19 @@
         <v>1445517</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1382659</v>
+        <v>1386060</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1509682</v>
+        <v>1513991</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3560695523691726</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3405858963015335</v>
+        <v>0.3414236133075667</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3718749827176674</v>
+        <v>0.3729365552064257</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>1118183</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1078195</v>
+        <v>1072975</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1163209</v>
+        <v>1166237</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5387482505861887</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5194819291621183</v>
+        <v>0.5169670713765312</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5604420857630353</v>
+        <v>0.5619010665765581</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1002</v>
@@ -5397,19 +5397,19 @@
         <v>1052488</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1009626</v>
+        <v>1009153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1097346</v>
+        <v>1098580</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5304536021294707</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5088514504357031</v>
+        <v>0.5086126194829753</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5530621621516106</v>
+        <v>0.5536839797226656</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2053</v>
@@ -5418,19 +5418,19 @@
         <v>2170671</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2100395</v>
+        <v>2104962</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2234342</v>
+        <v>2238316</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5346942913710624</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5173836266723961</v>
+        <v>0.5185085652279726</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5503783320772111</v>
+        <v>0.5513570779335026</v>
       </c>
     </row>
     <row r="15">
@@ -5522,19 +5522,19 @@
         <v>13244</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6441</v>
+        <v>6848</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23620</v>
+        <v>23669</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02421754048363288</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01177769992269188</v>
+        <v>0.01252153187711069</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04318978808946711</v>
+        <v>0.04327950922807659</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>19</v>
@@ -5543,19 +5543,19 @@
         <v>25407</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15014</v>
+        <v>14892</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>40011</v>
+        <v>37637</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04626670465153598</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02734108370039839</v>
+        <v>0.02711963569866484</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07286093769427245</v>
+        <v>0.06853819615418232</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>30</v>
@@ -5564,19 +5564,19 @@
         <v>38651</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>26032</v>
+        <v>26481</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>55203</v>
+        <v>56312</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03526479627596324</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02375146065577494</v>
+        <v>0.02416126012498644</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05036626686751349</v>
+        <v>0.05137848742944536</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>8141</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3295</v>
+        <v>3326</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15903</v>
+        <v>16236</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01488540120347258</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006024482601136382</v>
+        <v>0.006082243350012047</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02907924715190896</v>
+        <v>0.02968726288292273</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -5614,19 +5614,19 @@
         <v>28720</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19211</v>
+        <v>19082</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>41751</v>
+        <v>40139</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05230082096101569</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03498469534504788</v>
+        <v>0.0347486413185135</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07602959015474699</v>
+        <v>0.07309359416691678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>33</v>
@@ -5635,19 +5635,19 @@
         <v>36861</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>25691</v>
+        <v>25549</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>51369</v>
+        <v>50675</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0336315862965422</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02344053704759761</v>
+        <v>0.02331067601983158</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04686814125268577</v>
+        <v>0.04623525179557408</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>18567</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10983</v>
+        <v>10212</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>30312</v>
+        <v>29710</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.0339504539047805</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02008196432940463</v>
+        <v>0.01867307970163956</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05542671797103482</v>
+        <v>0.05432605725902184</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>15</v>
@@ -5685,19 +5685,19 @@
         <v>15769</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9169</v>
+        <v>9570</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>26037</v>
+        <v>26009</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.02871622969332051</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.01669729960371659</v>
+        <v>0.01742639380159196</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04741414189418591</v>
+        <v>0.04736363672399602</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -5706,19 +5706,19 @@
         <v>34336</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>23653</v>
+        <v>24452</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>48574</v>
+        <v>49855</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.03132795931504992</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.02158079257883244</v>
+        <v>0.02230955805768554</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.04431849306915819</v>
+        <v>0.04548722675077736</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>214297</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>189546</v>
+        <v>190090</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>238463</v>
+        <v>238034</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3918493619852926</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3465922036082966</v>
+        <v>0.3475857241301011</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4360369518446187</v>
+        <v>0.4352527790853381</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>199</v>
@@ -5756,19 +5756,19 @@
         <v>197797</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>175154</v>
+        <v>175195</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>221822</v>
+        <v>219425</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3601939093821612</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3189598152673453</v>
+        <v>0.3190354278575179</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4039437087774085</v>
+        <v>0.3995797968583776</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>400</v>
@@ -5777,19 +5777,19 @@
         <v>412094</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>382832</v>
+        <v>379270</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>445776</v>
+        <v>445734</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3759890835880803</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3492905380489403</v>
+        <v>0.3460403866357889</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4067199411553666</v>
+        <v>0.4066818995162779</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>292637</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>268246</v>
+        <v>267737</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>315676</v>
+        <v>318162</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5350972424228214</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4904967506283691</v>
+        <v>0.4895671353150253</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5772241490021073</v>
+        <v>0.5817698784360125</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>267</v>
@@ -5827,19 +5827,19 @@
         <v>281447</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>257655</v>
+        <v>257594</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>307072</v>
+        <v>305847</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5125223353119666</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4691971553717825</v>
+        <v>0.4690856089221289</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5591879870235481</v>
+        <v>0.5569566074244675</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>533</v>
@@ -5848,19 +5848,19 @@
         <v>574084</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>541466</v>
+        <v>543591</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>609395</v>
+        <v>610855</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5237865745243644</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4940258944545728</v>
+        <v>0.4959645635274451</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5560036933980581</v>
+        <v>0.5573355682099386</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>143169</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>122943</v>
+        <v>122527</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>167863</v>
+        <v>169289</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04239845017315193</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03640860250242638</v>
+        <v>0.03628534273917178</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04971128958188107</v>
+        <v>0.05013365568257002</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>360</v>
@@ -5973,19 +5973,19 @@
         <v>435988</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>392079</v>
+        <v>394080</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>477043</v>
+        <v>480472</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1235819301557831</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1111356253091823</v>
+        <v>0.1117029279813081</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1352191327244461</v>
+        <v>0.1361910092009087</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>511</v>
@@ -5994,19 +5994,19 @@
         <v>579157</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>527503</v>
+        <v>533744</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>628656</v>
+        <v>629720</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08387893625243235</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07639786353705125</v>
+        <v>0.07730177431994832</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09104783972044307</v>
+        <v>0.09120191973096924</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>89434</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>69989</v>
+        <v>72687</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>110235</v>
+        <v>112422</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0264851294093646</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0207267352733731</v>
+        <v>0.02152581862367526</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.03264525615610946</v>
+        <v>0.03329279296638211</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>148</v>
@@ -6044,19 +6044,19 @@
         <v>160166</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>137052</v>
+        <v>136194</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>187248</v>
+        <v>189742</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.04539950219858841</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03884781363221502</v>
+        <v>0.03860452273202866</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05307577769811439</v>
+        <v>0.0537829011464525</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>227</v>
@@ -6065,19 +6065,19 @@
         <v>249600</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>217264</v>
+        <v>215941</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>281578</v>
+        <v>283445</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0361493785564765</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03146617594413917</v>
+        <v>0.03127461452767433</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04078077941962214</v>
+        <v>0.04105117590275716</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>97004</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>79824</v>
+        <v>78341</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>120983</v>
+        <v>118684</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0287271196540051</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02363918597300262</v>
+        <v>0.02320016449792327</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.03582807719173122</v>
+        <v>0.03514724564296635</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>100</v>
@@ -6115,19 +6115,19 @@
         <v>103278</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>85927</v>
+        <v>84450</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>126256</v>
+        <v>126657</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.02927446864019847</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.02435622970899572</v>
+        <v>0.02393742959978785</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.03578743431760846</v>
+        <v>0.03590134665464229</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>189</v>
@@ -6136,19 +6136,19 @@
         <v>200283</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>174350</v>
+        <v>171339</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>232090</v>
+        <v>226335</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.02900678618230814</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02525103845055368</v>
+        <v>0.02481489091897619</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.03361337958256672</v>
+        <v>0.03277999504693262</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>1154659</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1098617</v>
+        <v>1100670</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1210835</v>
+        <v>1211762</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3419435614326765</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3253471892395299</v>
+        <v>0.3259551463151792</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3585797306103272</v>
+        <v>0.3588541042801265</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>914</v>
@@ -6186,19 +6186,19 @@
         <v>917171</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>868953</v>
+        <v>870280</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>968760</v>
+        <v>978708</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2599743825629068</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2463066987363501</v>
+        <v>0.2466831032465641</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.274597329231081</v>
+        <v>0.2774170444886739</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2006</v>
@@ -6207,19 +6207,19 @@
         <v>2071830</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1997775</v>
+        <v>1998868</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2148244</v>
+        <v>2147429</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3000616245686129</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.28933633563382</v>
+        <v>0.2894945195368944</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.311128653535394</v>
+        <v>0.3110105159673137</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>1892487</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1833098</v>
+        <v>1835927</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1952856</v>
+        <v>1954543</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5604457393308019</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5428582384743864</v>
+        <v>0.5436960429520242</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5783236923130021</v>
+        <v>0.5788233240046694</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1800</v>
@@ -6257,19 +6257,19 @@
         <v>1911325</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1849232</v>
+        <v>1850756</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1969863</v>
+        <v>1969371</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5417697164425233</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.524169396803709</v>
+        <v>0.5246011389155109</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5583623870090797</v>
+        <v>0.5582230574865538</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3603</v>
@@ -6278,19 +6278,19 @@
         <v>3803812</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3718159</v>
+        <v>3717204</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3886363</v>
+        <v>3882362</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5509032744401701</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5384982321229304</v>
+        <v>0.5383599791707417</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5628590782009372</v>
+        <v>0.5622796708235736</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>81253</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>67424</v>
+        <v>68419</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97024</v>
+        <v>97185</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1411852666456817</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1171566102428805</v>
+        <v>0.1188853009068491</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1685900946041731</v>
+        <v>0.1688704151570332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>603</v>
@@ -6642,19 +6642,19 @@
         <v>321345</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>300376</v>
+        <v>299119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>342268</v>
+        <v>341469</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3915150935817092</v>
+        <v>0.3915150935817091</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3659666841435111</v>
+        <v>0.3644357653012666</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.417006526329434</v>
+        <v>0.4160335340748854</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>726</v>
@@ -6663,19 +6663,19 @@
         <v>402598</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>373424</v>
+        <v>377273</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>427579</v>
+        <v>428536</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2883366320452544</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.267442664672601</v>
+        <v>0.2701993610067546</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3062281449389953</v>
+        <v>0.3069134580465682</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>21102</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13953</v>
+        <v>13558</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31570</v>
+        <v>30672</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.03666765269053037</v>
+        <v>0.03666765269053038</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0242455891979145</v>
+        <v>0.02355841787530197</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05485600448312168</v>
+        <v>0.05329562179724751</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>37</v>
@@ -6713,19 +6713,19 @@
         <v>23784</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>16864</v>
+        <v>17143</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>32278</v>
+        <v>31597</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02897731433878696</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02054637528936159</v>
+        <v>0.02088692750247303</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03932679394649202</v>
+        <v>0.0384971885220025</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>62</v>
@@ -6734,19 +6734,19 @@
         <v>44886</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34785</v>
+        <v>33939</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>56550</v>
+        <v>55999</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03214704161235895</v>
+        <v>0.03214704161235894</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02491268655116992</v>
+        <v>0.0243068311008803</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04050061270884447</v>
+        <v>0.04010631468225356</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>15374</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>9343</v>
+        <v>9888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25108</v>
+        <v>24615</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02671378795767648</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01623475902989573</v>
+        <v>0.01718196586648867</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04362808220296935</v>
+        <v>0.04277065549682982</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>37</v>
@@ -6784,19 +6784,19 @@
         <v>25065</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>17591</v>
+        <v>18549</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>35417</v>
+        <v>36195</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03053855459040665</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02143229645861177</v>
+        <v>0.02259938532376832</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04315059175824058</v>
+        <v>0.04409807935761587</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -6805,19 +6805,19 @@
         <v>40439</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30593</v>
+        <v>30036</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>52285</v>
+        <v>53874</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.02896210027119397</v>
+        <v>0.02896210027119396</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02191017596255417</v>
+        <v>0.0215114298059986</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03744572220835071</v>
+        <v>0.03858414976236205</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>137567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>116825</v>
+        <v>115646</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>162032</v>
+        <v>160056</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2390387153042987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2029964323946635</v>
+        <v>0.2009478292626461</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2815484741971522</v>
+        <v>0.2781150901343239</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>101</v>
@@ -6855,19 +6855,19 @@
         <v>71524</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58636</v>
+        <v>58425</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87925</v>
+        <v>88818</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.08714195164795134</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.07143945196401665</v>
+        <v>0.07118348628117688</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1071242934980641</v>
+        <v>0.1082127421954081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>228</v>
@@ -6876,19 +6876,19 @@
         <v>209091</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>181232</v>
+        <v>182009</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>238261</v>
+        <v>237669</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1497492508989253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1297968701622399</v>
+        <v>0.1303534914185726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.170640101957696</v>
+        <v>0.1702161630416815</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>320207</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294445</v>
+        <v>297022</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>342124</v>
+        <v>344063</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5563945774018128</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5116308085153779</v>
+        <v>0.5161091616547763</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5944781659078043</v>
+        <v>0.5978476719922911</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>647</v>
@@ -6926,19 +6926,19 @@
         <v>379055</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>356686</v>
+        <v>356113</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>401644</v>
+        <v>402003</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4618270858411458</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4345732740767698</v>
+        <v>0.4338753960208508</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4893483755700545</v>
+        <v>0.4897861825211966</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1043</v>
@@ -6947,19 +6947,19 @@
         <v>699262</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>667553</v>
+        <v>670045</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>734246</v>
+        <v>733395</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5008049751722673</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4780951187224382</v>
+        <v>0.4798799096071673</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5258601428606011</v>
+        <v>0.5252508262503282</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>59521</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48022</v>
+        <v>46178</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>74375</v>
+        <v>72703</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02670796556582762</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02154810654992743</v>
+        <v>0.02072058847632439</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03337309535398916</v>
+        <v>0.03262279155372749</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>279</v>
@@ -7072,19 +7072,19 @@
         <v>155329</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137459</v>
+        <v>137443</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173890</v>
+        <v>173637</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07173250746588236</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06347998969803109</v>
+        <v>0.06347234006667471</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08030417051492268</v>
+        <v>0.08018720546816734</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>358</v>
@@ -7093,19 +7093,19 @@
         <v>214851</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>191524</v>
+        <v>191768</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>240340</v>
+        <v>241035</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04889638853918134</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04358767146782742</v>
+        <v>0.04364322813140672</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0546974774279361</v>
+        <v>0.05485561343033783</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>96611</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>78452</v>
+        <v>78686</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>116168</v>
+        <v>116365</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04335048756003165</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03520220223577445</v>
+        <v>0.03530710531108508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05212608105798395</v>
+        <v>0.05221424489212913</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>210</v>
@@ -7143,19 +7143,19 @@
         <v>138980</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>121505</v>
+        <v>120406</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>157101</v>
+        <v>157610</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0641824532271455</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05611208883627</v>
+        <v>0.05560468451010438</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07255060257160993</v>
+        <v>0.07278564680120271</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>309</v>
@@ -7164,19 +7164,19 @@
         <v>235591</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>209711</v>
+        <v>208223</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>264746</v>
+        <v>263579</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05361663233534902</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04772669728878298</v>
+        <v>0.04738804167941259</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0602516855079252</v>
+        <v>0.05998616871990242</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>72061</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>56397</v>
+        <v>57835</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>90740</v>
+        <v>89505</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.03233467755286112</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02530608176223915</v>
+        <v>0.025951090771496</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.04071603137482717</v>
+        <v>0.04016188382793172</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>127</v>
@@ -7214,19 +7214,19 @@
         <v>85558</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>72426</v>
+        <v>70278</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>102975</v>
+        <v>101996</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.03951145846701387</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03344693548080462</v>
+        <v>0.0324550378874956</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.04755476632672947</v>
+        <v>0.04710256005137441</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>201</v>
@@ -7235,19 +7235,19 @@
         <v>157619</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>136833</v>
+        <v>134895</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>181421</v>
+        <v>180872</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03587144758516476</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.03114081233085618</v>
+        <v>0.03069975855149914</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.04128847337837822</v>
+        <v>0.04116342726147847</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>942442</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>881181</v>
+        <v>887346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>999998</v>
+        <v>1001779</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4228846685153342</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3953959087055647</v>
+        <v>0.3981625832377352</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4487108636958167</v>
+        <v>0.449509892341047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>639</v>
@@ -7285,19 +7285,19 @@
         <v>679857</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>635034</v>
+        <v>637604</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>730726</v>
+        <v>727335</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3139647411609484</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2932648798930654</v>
+        <v>0.294451675218316</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3374562983896456</v>
+        <v>0.3358905154406198</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1264</v>
@@ -7306,19 +7306,19 @@
         <v>1622299</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1547408</v>
+        <v>1551445</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1692879</v>
+        <v>1691749</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3692081330887042</v>
+        <v>0.3692081330887043</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3521642300702488</v>
+        <v>0.353083027080124</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3852709847741081</v>
+        <v>0.3850137748757405</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>1057967</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1001942</v>
+        <v>1003071</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1110627</v>
+        <v>1116902</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4747222008059456</v>
+        <v>0.4747222008059455</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4495830099893309</v>
+        <v>0.4500893712315817</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4983510226941675</v>
+        <v>0.5011666824341962</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1656</v>
@@ -7356,19 +7356,19 @@
         <v>1105669</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1060788</v>
+        <v>1063883</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1147391</v>
+        <v>1151373</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5106088396790098</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4898822473781458</v>
+        <v>0.4913116002315547</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5298763463902998</v>
+        <v>0.5317153714510067</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2769</v>
@@ -7377,19 +7377,19 @@
         <v>2163636</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2093646</v>
+        <v>2099403</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2231363</v>
+        <v>2230681</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.4924073984516008</v>
+        <v>0.4924073984516006</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4764789181755963</v>
+        <v>0.4777889290614828</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5078210067179137</v>
+        <v>0.5076655774126563</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>16383</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10506</v>
+        <v>10740</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25214</v>
+        <v>25067</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02309578476689368</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01481113497535928</v>
+        <v>0.01514134055984335</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03554629693160882</v>
+        <v>0.03533861741528295</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -7502,19 +7502,19 @@
         <v>33983</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>26199</v>
+        <v>26244</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>43966</v>
+        <v>43212</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.04646156725161165</v>
+        <v>0.04646156725161164</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03581889201825882</v>
+        <v>0.03588094231104646</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06011004444524301</v>
+        <v>0.05907873993847591</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>84</v>
@@ -7523,19 +7523,19 @@
         <v>50366</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>40756</v>
+        <v>40032</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61589</v>
+        <v>62738</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03495774925223962</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02828743584244048</v>
+        <v>0.02778499632515742</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04274729799836991</v>
+        <v>0.04354515411013086</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>23902</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16020</v>
+        <v>15350</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>35213</v>
+        <v>34448</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03369575822573528</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0225843124657264</v>
+        <v>0.02163934560286183</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04964246420197319</v>
+        <v>0.04856365073211788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>73</v>
@@ -7573,19 +7573,19 @@
         <v>45565</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35891</v>
+        <v>36203</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>56274</v>
+        <v>56473</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.06229652202014022</v>
+        <v>0.06229652202014021</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04907031922545211</v>
+        <v>0.04949657774408443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07693787075199836</v>
+        <v>0.07720897088400069</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -7594,19 +7594,19 @@
         <v>69467</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>56997</v>
+        <v>56698</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>84346</v>
+        <v>84186</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04821533378905689</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03956036742518938</v>
+        <v>0.03935258984947146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05854273243059964</v>
+        <v>0.0584315431262438</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>10538</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5967</v>
+        <v>5533</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>18117</v>
+        <v>18471</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01485656196675965</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.008412713109489749</v>
+        <v>0.007799525000617721</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02554114270810987</v>
+        <v>0.02603906338162076</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -7644,19 +7644,19 @@
         <v>24847</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17455</v>
+        <v>17409</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>33431</v>
+        <v>32489</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.03397124967986349</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.02386467152782219</v>
+        <v>0.02380204756770161</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.04570632840266861</v>
+        <v>0.04441913564682501</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>51</v>
@@ -7665,19 +7665,19 @@
         <v>35386</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>26251</v>
+        <v>27045</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>45803</v>
+        <v>47004</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.02456039906057881</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.01822034858099713</v>
+        <v>0.01877118557652613</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.0317910711654709</v>
+        <v>0.03262431883777096</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>261622</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>232273</v>
+        <v>231829</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>290951</v>
+        <v>294729</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3688234243371633</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3274487955654427</v>
+        <v>0.3268225070718873</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4101713888719709</v>
+        <v>0.4154976061686545</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>272</v>
@@ -7715,19 +7715,19 @@
         <v>257164</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>233328</v>
+        <v>234109</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>280596</v>
+        <v>280676</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3515927909174491</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3190049497906832</v>
+        <v>0.3200722096876603</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3836295087866798</v>
+        <v>0.38373837048409</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>466</v>
@@ -7736,19 +7736,19 @@
         <v>518785</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>482414</v>
+        <v>478171</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>557370</v>
+        <v>555064</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3600760536116872</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3348318347835901</v>
+        <v>0.3318863226974053</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3868564947622073</v>
+        <v>0.3852560742182468</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>396896</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>367675</v>
+        <v>364897</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>426240</v>
+        <v>426552</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5595284707034481</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5183338157696779</v>
+        <v>0.514416615269121</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6008958227079901</v>
+        <v>0.6013356200213396</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>554</v>
@@ -7786,19 +7786,19 @@
         <v>369865</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>346456</v>
+        <v>347146</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>394249</v>
+        <v>393957</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5056778701309356</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4736722842332843</v>
+        <v>0.4746158271455673</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5390154324417921</v>
+        <v>0.5386162399683432</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>977</v>
@@ -7807,19 +7807,19 @@
         <v>766762</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>729993</v>
+        <v>731041</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>806642</v>
+        <v>804052</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5321904642864376</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5066703903609064</v>
+        <v>0.5073973350161841</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5598699699034354</v>
+        <v>0.558072743056747</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>157157</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>134543</v>
+        <v>138562</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>177374</v>
+        <v>180561</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.04473009157618025</v>
+        <v>0.04473009157618024</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03829360897995242</v>
+        <v>0.03943759181825344</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05048440115810257</v>
+        <v>0.05139145807881628</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>942</v>
@@ -7932,19 +7932,19 @@
         <v>510657</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>480991</v>
+        <v>476991</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>544900</v>
+        <v>543028</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1373623927512443</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.129382385850847</v>
+        <v>0.128306499319617</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1465733946342588</v>
+        <v>0.1460698374570178</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1168</v>
@@ -7953,19 +7953,19 @@
         <v>667814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>626965</v>
+        <v>630417</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>707583</v>
+        <v>709235</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.09235382312299366</v>
+        <v>0.09235382312299364</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.08670470378293742</v>
+        <v>0.08718214000617386</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09785357368919459</v>
+        <v>0.09808208751023742</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>141615</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>118976</v>
+        <v>119556</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>166412</v>
+        <v>165008</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04030661418815839</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.0338630274243458</v>
+        <v>0.03402798495200241</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04736442012804246</v>
+        <v>0.04696483946722131</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>320</v>
@@ -8003,19 +8003,19 @@
         <v>208329</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>186368</v>
+        <v>186258</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>232222</v>
+        <v>230864</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05603878206791396</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05013140951508044</v>
+        <v>0.0501019205120848</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06246575046312009</v>
+        <v>0.06210048806351324</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>469</v>
@@ -8024,19 +8024,19 @@
         <v>349944</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>320039</v>
+        <v>317527</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>383591</v>
+        <v>380318</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.04839477058987549</v>
+        <v>0.04839477058987548</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04425908077188782</v>
+        <v>0.04391166800985754</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.05304788451594402</v>
+        <v>0.05259527538616487</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>97973</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>78529</v>
+        <v>79903</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>118359</v>
+        <v>118467</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.02788526272723564</v>
+        <v>0.02788526272723565</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.02235097658377513</v>
+        <v>0.02274197211415355</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0336873996724388</v>
+        <v>0.03371828796587865</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>203</v>
@@ -8074,19 +8074,19 @@
         <v>135470</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>117674</v>
+        <v>117888</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>154357</v>
+        <v>154994</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0364403940121613</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.03165339215607062</v>
+        <v>0.03171086920376284</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.04152077060160504</v>
+        <v>0.04169195009936109</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>306</v>
@@ -8095,19 +8095,19 @@
         <v>233444</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>208282</v>
+        <v>205619</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>259687</v>
+        <v>259950</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03228359106943082</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02880382392615419</v>
+        <v>0.02843566625552486</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.035912848519802</v>
+        <v>0.03594923862026474</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>1341631</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1277520</v>
+        <v>1273762</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1407878</v>
+        <v>1418757</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3818560752465699</v>
+        <v>0.38185607524657</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.363608657606185</v>
+        <v>0.3625392066562593</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4007113983764365</v>
+        <v>0.4038078385216137</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1012</v>
@@ -8145,19 +8145,19 @@
         <v>1008545</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>952650</v>
+        <v>948991</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1064989</v>
+        <v>1067952</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2712898210655042</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2562545633549603</v>
+        <v>0.2552705183211479</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2864729022922818</v>
+        <v>0.2872698212593525</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1958</v>
@@ -8166,19 +8166,19 @@
         <v>2350175</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2263679</v>
+        <v>2263090</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2444345</v>
+        <v>2448489</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3250122147307387</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3130503480568053</v>
+        <v>0.3129689698123078</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.338035161356487</v>
+        <v>0.3386082296436548</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>1775071</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1712423</v>
+        <v>1710536</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1840456</v>
+        <v>1843309</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.5052219562618558</v>
+        <v>0.5052219562618557</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4873911126652471</v>
+        <v>0.4868542089234192</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5238318840773328</v>
+        <v>0.5246441548151947</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2857</v>
@@ -8216,19 +8216,19 @@
         <v>1854589</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1803902</v>
+        <v>1799175</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1912076</v>
+        <v>1909079</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4988686101031762</v>
+        <v>0.4988686101031763</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4852341657007582</v>
+        <v>0.4839626098281241</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5143320602212798</v>
+        <v>0.513525781084651</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4789</v>
@@ -8237,19 +8237,19 @@
         <v>3629660</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3540852</v>
+        <v>3542442</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3708541</v>
+        <v>3716269</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.5019556004869613</v>
+        <v>0.5019556004869612</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4896741556887842</v>
+        <v>0.4898940550620795</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5128644032862107</v>
+        <v>0.5139331140116463</v>
       </c>
     </row>
     <row r="27">
